--- a/data/processed/processed_excel_files/all_data_analysis_R.xlsx
+++ b/data/processed/processed_excel_files/all_data_analysis_R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VPHI\Epi\Projects\127_AB_Vielverbraucher (Minnig)\Data bases\Datenerhebung_Betriebe\04_Kotproben_AMR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am17w286\Documents\GitHub\Projekt_Antibiotikaverbrauch\data\processed\processed_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31980D-0CEB-4590-9923-39EAE1B0D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9FFFBE-9D88-4E92-9162-BC6D4A86C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_cleaned" sheetId="5" r:id="rId1"/>
@@ -27565,7 +27565,7 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:Y438"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -31126,7 +31126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8428835-AB9B-470F-8860-9E06EE22923E}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
